--- a/optimization model/data/input-time-series.xlsx
+++ b/optimization model/data/input-time-series.xlsx
@@ -225,6 +225,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -252,20 +266,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -280,14 +280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H1753" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:H1753">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Baseline"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H1753" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:H1753"/>
   <tableColumns count="8">
     <tableColumn id="1" name="model"/>
     <tableColumn id="2" name="scenario"/>
@@ -589,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1754"/>
+  <dimension ref="A1:U1753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1142" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -1850,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -1980,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2032,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2266,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2344,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2422,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -2682,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -2708,7 +2702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -2734,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +2754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -2916,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -2968,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -3020,7 +3014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -3124,7 +3118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -3176,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -3228,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -3306,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -3332,7 +3326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -3410,7 +3404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +3430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -3514,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -3540,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -3566,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +3612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -3644,7 +3638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +3716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -3800,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +3872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -3904,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -3930,7 +3924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -3956,7 +3950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -3982,7 +3976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -4008,7 +4002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -4112,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -4164,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -4190,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>7</v>
       </c>
@@ -4242,7 +4236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>7</v>
       </c>
@@ -4346,7 +4340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
@@ -4372,7 +4366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
@@ -4476,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
@@ -4502,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
@@ -4528,7 +4522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -4554,7 +4548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +4574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>7</v>
       </c>
@@ -4632,7 +4626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
@@ -4684,7 +4678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>7</v>
       </c>
@@ -4710,7 +4704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -4762,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>7</v>
       </c>
@@ -4788,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -4814,7 +4808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -4840,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -4866,7 +4860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -4918,7 +4912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -4970,7 +4964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -4996,7 +4990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>7</v>
       </c>
@@ -5048,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>7</v>
       </c>
@@ -5074,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
@@ -5100,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -5152,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -5204,7 +5198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -5230,7 +5224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -5256,7 +5250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -5360,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -5386,7 +5380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -5412,7 +5406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -5438,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -5464,7 +5458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -5490,7 +5484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -5646,7 +5640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -5672,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -5698,7 +5692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -5724,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -5750,7 +5744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -5776,7 +5770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -5802,7 +5796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -5854,7 +5848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>7</v>
       </c>
@@ -5880,7 +5874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>7</v>
       </c>
@@ -5906,7 +5900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -5932,7 +5926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -5958,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -6010,7 +6004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -6036,7 +6030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -6062,7 +6056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -6088,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -6114,7 +6108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -6166,7 +6160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -6218,7 +6212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -6244,7 +6238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
         <v>7</v>
       </c>
@@ -31807,7 +31801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1178" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -31833,7 +31827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31859,7 +31853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31885,7 +31879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31911,7 +31905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31937,7 +31931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31963,7 +31957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31989,7 +31983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -32015,7 +32009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
         <v>7</v>
       </c>
@@ -32041,7 +32035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
         <v>7</v>
       </c>
@@ -32067,7 +32061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
         <v>7</v>
       </c>
@@ -32093,7 +32087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
         <v>7</v>
       </c>
@@ -32119,7 +32113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>7</v>
       </c>
@@ -32145,7 +32139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>7</v>
       </c>
@@ -32171,7 +32165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>7</v>
       </c>
@@ -32197,7 +32191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
         <v>7</v>
       </c>
@@ -32223,7 +32217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>7</v>
       </c>
@@ -32249,7 +32243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
         <v>7</v>
       </c>
@@ -32275,7 +32269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>7</v>
       </c>
@@ -32301,7 +32295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>7</v>
       </c>
@@ -32327,7 +32321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
         <v>7</v>
       </c>
@@ -32353,7 +32347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>7</v>
       </c>
@@ -32379,7 +32373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>7</v>
       </c>
@@ -32405,7 +32399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>7</v>
       </c>
@@ -32431,7 +32425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
         <v>7</v>
       </c>
@@ -32457,7 +32451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
         <v>7</v>
       </c>
@@ -32483,7 +32477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
         <v>7</v>
       </c>
@@ -32509,7 +32503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
         <v>7</v>
       </c>
@@ -32535,7 +32529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
         <v>7</v>
       </c>
@@ -32561,7 +32555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
         <v>7</v>
       </c>
@@ -32587,7 +32581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
         <v>7</v>
       </c>
@@ -32613,7 +32607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
         <v>7</v>
       </c>
@@ -32639,7 +32633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
         <v>7</v>
       </c>
@@ -32665,7 +32659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
         <v>7</v>
       </c>
@@ -32691,7 +32685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
         <v>7</v>
       </c>
@@ -32717,7 +32711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
         <v>7</v>
       </c>
@@ -32743,7 +32737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
         <v>7</v>
       </c>
@@ -32769,7 +32763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
         <v>7</v>
       </c>
@@ -32795,7 +32789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>7</v>
       </c>
@@ -32821,7 +32815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
         <v>7</v>
       </c>
@@ -32847,7 +32841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
         <v>7</v>
       </c>
@@ -32873,7 +32867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
         <v>7</v>
       </c>
@@ -32899,7 +32893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
         <v>7</v>
       </c>
@@ -32925,7 +32919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
         <v>7</v>
       </c>
@@ -32951,7 +32945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>7</v>
       </c>
@@ -32977,7 +32971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
         <v>7</v>
       </c>
@@ -33003,7 +32997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
         <v>7</v>
       </c>
@@ -33029,7 +33023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
         <v>7</v>
       </c>
@@ -33055,7 +33049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
         <v>7</v>
       </c>
@@ -33081,7 +33075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
         <v>7</v>
       </c>
@@ -33107,7 +33101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
         <v>7</v>
       </c>
@@ -33133,7 +33127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
         <v>7</v>
       </c>
@@ -33159,7 +33153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
         <v>7</v>
       </c>
@@ -33185,7 +33179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
         <v>7</v>
       </c>
@@ -33211,7 +33205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
         <v>7</v>
       </c>
@@ -33237,7 +33231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
         <v>7</v>
       </c>
@@ -33263,7 +33257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
         <v>7</v>
       </c>
@@ -33289,7 +33283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
         <v>7</v>
       </c>
@@ -33315,7 +33309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
         <v>7</v>
       </c>
@@ -33341,7 +33335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
         <v>7</v>
       </c>
@@ -33367,7 +33361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
         <v>7</v>
       </c>
@@ -33393,7 +33387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>7</v>
       </c>
@@ -33419,7 +33413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
         <v>7</v>
       </c>
@@ -33445,7 +33439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
         <v>7</v>
       </c>
@@ -33471,7 +33465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
         <v>7</v>
       </c>
@@ -33497,7 +33491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
         <v>7</v>
       </c>
@@ -33523,7 +33517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
         <v>7</v>
       </c>
@@ -33549,7 +33543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
         <v>7</v>
       </c>
@@ -33575,7 +33569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
         <v>7</v>
       </c>
@@ -33601,7 +33595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
         <v>7</v>
       </c>
@@ -33627,7 +33621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
         <v>7</v>
       </c>
@@ -33653,7 +33647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
         <v>7</v>
       </c>
@@ -33679,7 +33673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
         <v>7</v>
       </c>
@@ -33705,7 +33699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
         <v>7</v>
       </c>
@@ -33731,7 +33725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
         <v>7</v>
       </c>
@@ -33757,7 +33751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
         <v>7</v>
       </c>
@@ -33783,7 +33777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
         <v>7</v>
       </c>
@@ -33809,7 +33803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
         <v>7</v>
       </c>
@@ -33835,7 +33829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
         <v>7</v>
       </c>
@@ -33861,7 +33855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
         <v>7</v>
       </c>
@@ -33887,7 +33881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
         <v>7</v>
       </c>
@@ -33913,7 +33907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
         <v>7</v>
       </c>
@@ -33939,7 +33933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
         <v>7</v>
       </c>
@@ -33965,7 +33959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
         <v>7</v>
       </c>
@@ -33991,7 +33985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
         <v>7</v>
       </c>
@@ -34017,7 +34011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
         <v>7</v>
       </c>
@@ -34043,7 +34037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
         <v>7</v>
       </c>
@@ -34069,7 +34063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
         <v>7</v>
       </c>
@@ -34095,7 +34089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
         <v>7</v>
       </c>
@@ -34121,7 +34115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
         <v>7</v>
       </c>
@@ -34147,7 +34141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
         <v>7</v>
       </c>
@@ -34173,7 +34167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
         <v>7</v>
       </c>
@@ -34199,7 +34193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
         <v>7</v>
       </c>
@@ -34225,7 +34219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>7</v>
       </c>
@@ -34251,7 +34245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
         <v>7</v>
       </c>
@@ -34277,7 +34271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
         <v>7</v>
       </c>
@@ -34303,7 +34297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
         <v>7</v>
       </c>
@@ -34329,7 +34323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
         <v>7</v>
       </c>
@@ -34355,7 +34349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
         <v>7</v>
       </c>
@@ -34381,7 +34375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
         <v>7</v>
       </c>
@@ -34407,7 +34401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
         <v>7</v>
       </c>
@@ -34433,7 +34427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
         <v>7</v>
       </c>
@@ -34459,7 +34453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
         <v>7</v>
       </c>
@@ -34485,7 +34479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
         <v>7</v>
       </c>
@@ -34511,7 +34505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
         <v>7</v>
       </c>
@@ -34537,7 +34531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
         <v>7</v>
       </c>
@@ -34563,7 +34557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
         <v>7</v>
       </c>
@@ -34589,7 +34583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
         <v>7</v>
       </c>
@@ -34615,7 +34609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
         <v>7</v>
       </c>
@@ -34641,7 +34635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
         <v>7</v>
       </c>
@@ -34667,7 +34661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
         <v>7</v>
       </c>
@@ -34693,7 +34687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
         <v>7</v>
       </c>
@@ -34719,7 +34713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
         <v>7</v>
       </c>
@@ -34745,7 +34739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
         <v>7</v>
       </c>
@@ -34771,7 +34765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
         <v>7</v>
       </c>
@@ -34797,7 +34791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
         <v>7</v>
       </c>
@@ -34823,7 +34817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
         <v>7</v>
       </c>
@@ -34849,7 +34843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
         <v>7</v>
       </c>
@@ -34875,7 +34869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
         <v>7</v>
       </c>
@@ -34901,7 +34895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
         <v>7</v>
       </c>
@@ -34927,7 +34921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
         <v>7</v>
       </c>
@@ -34953,7 +34947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
         <v>7</v>
       </c>
@@ -34979,7 +34973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
         <v>7</v>
       </c>
@@ -35005,7 +34999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
         <v>7</v>
       </c>
@@ -35031,7 +35025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
         <v>7</v>
       </c>
@@ -35057,7 +35051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
         <v>7</v>
       </c>
@@ -35083,7 +35077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
         <v>7</v>
       </c>
@@ -35109,7 +35103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
         <v>7</v>
       </c>
@@ -35135,7 +35129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
         <v>7</v>
       </c>
@@ -35161,7 +35155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
         <v>7</v>
       </c>
@@ -35187,7 +35181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
         <v>7</v>
       </c>
@@ -35213,7 +35207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
         <v>7</v>
       </c>
@@ -35239,7 +35233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
         <v>7</v>
       </c>
@@ -35265,7 +35259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
         <v>7</v>
       </c>
@@ -35291,7 +35285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
         <v>7</v>
       </c>
@@ -35317,7 +35311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
         <v>7</v>
       </c>
@@ -35343,7 +35337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
         <v>7</v>
       </c>
@@ -35369,7 +35363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
         <v>7</v>
       </c>
@@ -35395,7 +35389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
         <v>7</v>
       </c>
@@ -35421,7 +35415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
         <v>7</v>
       </c>
@@ -35447,7 +35441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
         <v>7</v>
       </c>
@@ -35473,7 +35467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
         <v>7</v>
       </c>
@@ -35499,7 +35493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
         <v>7</v>
       </c>
@@ -35525,7 +35519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
         <v>7</v>
       </c>
@@ -35551,7 +35545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
         <v>7</v>
       </c>
@@ -35577,7 +35571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
         <v>7</v>
       </c>
@@ -35603,7 +35597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
         <v>7</v>
       </c>
@@ -35629,7 +35623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
         <v>7</v>
       </c>
@@ -35655,7 +35649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
         <v>7</v>
       </c>
@@ -35681,7 +35675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
         <v>7</v>
       </c>
@@ -35707,7 +35701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
         <v>7</v>
       </c>
@@ -35733,7 +35727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
         <v>7</v>
       </c>
@@ -35759,7 +35753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
         <v>7</v>
       </c>
@@ -35785,7 +35779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
         <v>7</v>
       </c>
@@ -35811,7 +35805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
         <v>7</v>
       </c>
@@ -35837,7 +35831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
         <v>7</v>
       </c>
@@ -35863,7 +35857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
         <v>7</v>
       </c>
@@ -35889,7 +35883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
         <v>7</v>
       </c>
@@ -35915,7 +35909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
         <v>7</v>
       </c>
@@ -35941,7 +35935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
         <v>7</v>
       </c>
@@ -35967,7 +35961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
         <v>7</v>
       </c>
@@ -35993,7 +35987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
         <v>7</v>
       </c>
@@ -36019,7 +36013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
         <v>7</v>
       </c>
@@ -36045,7 +36039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
         <v>7</v>
       </c>
@@ -36071,7 +36065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
         <v>7</v>
       </c>
@@ -36097,7 +36091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
         <v>7</v>
       </c>
@@ -36123,7 +36117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
         <v>7</v>
       </c>
@@ -36149,7 +36143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
         <v>7</v>
       </c>
@@ -36175,7 +36169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
         <v>7</v>
       </c>
@@ -36201,7 +36195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
         <v>7</v>
       </c>
@@ -36227,7 +36221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
         <v>7</v>
       </c>
@@ -36253,7 +36247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
         <v>7</v>
       </c>
@@ -36279,7 +36273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
         <v>7</v>
       </c>
@@ -36305,7 +36299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
         <v>7</v>
       </c>
@@ -36331,7 +36325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
         <v>7</v>
       </c>
@@ -36357,7 +36351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
         <v>7</v>
       </c>
@@ -36383,7 +36377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
         <v>7</v>
       </c>
@@ -36409,7 +36403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
         <v>7</v>
       </c>
@@ -36435,7 +36429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
         <v>7</v>
       </c>
@@ -36461,7 +36455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
         <v>7</v>
       </c>
@@ -36487,7 +36481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
         <v>7</v>
       </c>
@@ -36513,7 +36507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
         <v>7</v>
       </c>
@@ -36539,7 +36533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
         <v>7</v>
       </c>
@@ -36565,7 +36559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
         <v>7</v>
       </c>
@@ -36591,7 +36585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
         <v>7</v>
       </c>
@@ -36617,7 +36611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
         <v>7</v>
       </c>
@@ -36643,7 +36637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
         <v>7</v>
       </c>
@@ -36669,7 +36663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
         <v>7</v>
       </c>
@@ -36695,7 +36689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
         <v>7</v>
       </c>
@@ -36721,7 +36715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
         <v>7</v>
       </c>
@@ -36747,7 +36741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
         <v>7</v>
       </c>
@@ -36773,7 +36767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
         <v>7</v>
       </c>
@@ -36799,7 +36793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
         <v>7</v>
       </c>
@@ -36825,7 +36819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
         <v>7</v>
       </c>
@@ -36851,7 +36845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
         <v>7</v>
       </c>
@@ -36877,7 +36871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
         <v>7</v>
       </c>
@@ -36903,7 +36897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
         <v>7</v>
       </c>
@@ -36929,7 +36923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
         <v>7</v>
       </c>
@@ -36955,7 +36949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
         <v>7</v>
       </c>
@@ -36981,7 +36975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
         <v>7</v>
       </c>
@@ -37007,7 +37001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
         <v>7</v>
       </c>
@@ -37033,7 +37027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
         <v>7</v>
       </c>
@@ -37059,7 +37053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
         <v>7</v>
       </c>
@@ -37085,7 +37079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
         <v>7</v>
       </c>
@@ -37111,7 +37105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
         <v>7</v>
       </c>
@@ -37137,7 +37131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
         <v>7</v>
       </c>
@@ -37163,7 +37157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
         <v>7</v>
       </c>
@@ -37189,7 +37183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
         <v>7</v>
       </c>
@@ -37215,7 +37209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
         <v>7</v>
       </c>
@@ -37241,7 +37235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
         <v>7</v>
       </c>
@@ -37267,7 +37261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
         <v>7</v>
       </c>
@@ -37293,7 +37287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
         <v>7</v>
       </c>
@@ -37319,7 +37313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
         <v>7</v>
       </c>
@@ -37345,7 +37339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
         <v>7</v>
       </c>
@@ -37371,7 +37365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
         <v>7</v>
       </c>
@@ -37397,7 +37391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
         <v>7</v>
       </c>
@@ -37423,7 +37417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
         <v>7</v>
       </c>
@@ -37449,7 +37443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
         <v>7</v>
       </c>
@@ -37475,7 +37469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
         <v>7</v>
       </c>
@@ -37501,7 +37495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
         <v>7</v>
       </c>
@@ -37527,7 +37521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
         <v>7</v>
       </c>
@@ -37553,7 +37547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
         <v>7</v>
       </c>
@@ -37579,7 +37573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
         <v>7</v>
       </c>
@@ -37605,7 +37599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
         <v>7</v>
       </c>
@@ -37631,7 +37625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
         <v>7</v>
       </c>
@@ -37657,7 +37651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
         <v>7</v>
       </c>
@@ -37683,7 +37677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
         <v>7</v>
       </c>
@@ -37709,7 +37703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
         <v>7</v>
       </c>
@@ -37735,7 +37729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
         <v>7</v>
       </c>
@@ -37761,7 +37755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
         <v>7</v>
       </c>
@@ -37787,7 +37781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
         <v>7</v>
       </c>
@@ -37813,7 +37807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
         <v>7</v>
       </c>
@@ -37839,7 +37833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
         <v>7</v>
       </c>
@@ -37865,7 +37859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
         <v>7</v>
       </c>
@@ -37891,7 +37885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
         <v>7</v>
       </c>
@@ -37917,7 +37911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
         <v>7</v>
       </c>
@@ -37943,7 +37937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
         <v>7</v>
       </c>
@@ -37969,7 +37963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
         <v>7</v>
       </c>
@@ -37995,7 +37989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
         <v>7</v>
       </c>
@@ -38021,7 +38015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
         <v>7</v>
       </c>
@@ -38047,7 +38041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
         <v>7</v>
       </c>
@@ -38073,7 +38067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
         <v>7</v>
       </c>
@@ -38099,7 +38093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
         <v>7</v>
       </c>
@@ -38125,7 +38119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
         <v>7</v>
       </c>
@@ -38151,7 +38145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
         <v>7</v>
       </c>
@@ -38177,7 +38171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
         <v>7</v>
       </c>
@@ -38203,7 +38197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
         <v>7</v>
       </c>
@@ -38229,7 +38223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
         <v>7</v>
       </c>
@@ -38255,7 +38249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
         <v>7</v>
       </c>
@@ -38281,7 +38275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
         <v>7</v>
       </c>
@@ -38307,7 +38301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
         <v>7</v>
       </c>
@@ -38333,7 +38327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
         <v>7</v>
       </c>
@@ -38359,7 +38353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
         <v>7</v>
       </c>
@@ -38385,7 +38379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1431" t="s">
         <v>7</v>
       </c>
@@ -38411,7 +38405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
         <v>7</v>
       </c>
@@ -38437,7 +38431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1433" t="s">
         <v>7</v>
       </c>
@@ -38463,7 +38457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1434" t="s">
         <v>7</v>
       </c>
@@ -38489,7 +38483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1435" t="s">
         <v>7</v>
       </c>
@@ -38515,7 +38509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1436" t="s">
         <v>7</v>
       </c>
@@ -38541,7 +38535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1437" t="s">
         <v>7</v>
       </c>
@@ -38567,7 +38561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
         <v>7</v>
       </c>
@@ -38593,7 +38587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
         <v>7</v>
       </c>
@@ -38619,7 +38613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
         <v>7</v>
       </c>
@@ -38645,7 +38639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
         <v>7</v>
       </c>
@@ -38671,7 +38665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
         <v>7</v>
       </c>
@@ -38697,7 +38691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
         <v>7</v>
       </c>
@@ -38723,7 +38717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
         <v>7</v>
       </c>
@@ -38749,7 +38743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>7</v>
       </c>
@@ -38775,7 +38769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>7</v>
       </c>
@@ -38801,7 +38795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>7</v>
       </c>
@@ -38827,7 +38821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
         <v>7</v>
       </c>
@@ -38853,7 +38847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
         <v>7</v>
       </c>
@@ -38879,7 +38873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
         <v>7</v>
       </c>
@@ -38905,7 +38899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1451" t="s">
         <v>7</v>
       </c>
@@ -38931,7 +38925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
         <v>7</v>
       </c>
@@ -38957,7 +38951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
         <v>7</v>
       </c>
@@ -38983,7 +38977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1454" t="s">
         <v>7</v>
       </c>
@@ -39009,7 +39003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1455" t="s">
         <v>7</v>
       </c>
@@ -39035,7 +39029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1456" t="s">
         <v>7</v>
       </c>
@@ -39061,7 +39055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1457" t="s">
         <v>7</v>
       </c>
@@ -39087,7 +39081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1458" t="s">
         <v>7</v>
       </c>
@@ -39113,7 +39107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1459" t="s">
         <v>7</v>
       </c>
@@ -39139,7 +39133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1460" t="s">
         <v>7</v>
       </c>
@@ -39165,7 +39159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
         <v>7</v>
       </c>
@@ -39191,7 +39185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
         <v>7</v>
       </c>
@@ -39217,7 +39211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
         <v>7</v>
       </c>
@@ -39243,7 +39237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
         <v>7</v>
       </c>
@@ -39269,7 +39263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1465" t="s">
         <v>7</v>
       </c>
@@ -39295,7 +39289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1466" t="s">
         <v>7</v>
       </c>
@@ -39321,7 +39315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1467" t="s">
         <v>7</v>
       </c>
@@ -39347,7 +39341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1468" t="s">
         <v>7</v>
       </c>
@@ -39373,7 +39367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
         <v>7</v>
       </c>
@@ -39399,7 +39393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
         <v>7</v>
       </c>
@@ -39425,7 +39419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
         <v>7</v>
       </c>
@@ -39451,7 +39445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
         <v>7</v>
       </c>
@@ -39477,7 +39471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
         <v>7</v>
       </c>
@@ -39503,7 +39497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
         <v>7</v>
       </c>
@@ -39529,7 +39523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
         <v>7</v>
       </c>
@@ -39555,7 +39549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
         <v>7</v>
       </c>
@@ -39581,7 +39575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
         <v>7</v>
       </c>
@@ -39607,7 +39601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
         <v>7</v>
       </c>
@@ -39633,7 +39627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
         <v>7</v>
       </c>
@@ -39659,7 +39653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
         <v>7</v>
       </c>
@@ -39685,7 +39679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
         <v>7</v>
       </c>
@@ -39711,7 +39705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
         <v>7</v>
       </c>
@@ -39737,7 +39731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
         <v>7</v>
       </c>
@@ -39763,7 +39757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
         <v>7</v>
       </c>
@@ -39789,7 +39783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
         <v>7</v>
       </c>
@@ -39815,7 +39809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
         <v>7</v>
       </c>
@@ -39841,7 +39835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
         <v>7</v>
       </c>
@@ -39867,7 +39861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
         <v>7</v>
       </c>
@@ -39893,7 +39887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
         <v>7</v>
       </c>
@@ -39919,7 +39913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
         <v>7</v>
       </c>
@@ -39945,7 +39939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
         <v>7</v>
       </c>
@@ -39971,7 +39965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
         <v>7</v>
       </c>
@@ -39997,7 +39991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
         <v>7</v>
       </c>
@@ -40023,7 +40017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
         <v>7</v>
       </c>
@@ -40049,7 +40043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
         <v>7</v>
       </c>
@@ -40075,7 +40069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
         <v>7</v>
       </c>
@@ -40101,7 +40095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
         <v>7</v>
       </c>
@@ -40127,7 +40121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
         <v>7</v>
       </c>
@@ -40153,7 +40147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
         <v>7</v>
       </c>
@@ -40179,7 +40173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
         <v>7</v>
       </c>
@@ -40205,7 +40199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
         <v>7</v>
       </c>
@@ -40231,7 +40225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
         <v>7</v>
       </c>
@@ -40257,7 +40251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
         <v>7</v>
       </c>
@@ -40283,7 +40277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
         <v>7</v>
       </c>
@@ -40309,7 +40303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
         <v>7</v>
       </c>
@@ -40335,7 +40329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
         <v>7</v>
       </c>
@@ -40361,7 +40355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
         <v>7</v>
       </c>
@@ -40387,7 +40381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
         <v>7</v>
       </c>
@@ -40413,7 +40407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
         <v>7</v>
       </c>
@@ -40439,7 +40433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
         <v>7</v>
       </c>
@@ -40465,7 +40459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
         <v>7</v>
       </c>
@@ -40491,7 +40485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
         <v>7</v>
       </c>
@@ -40517,7 +40511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
         <v>7</v>
       </c>
@@ -40543,7 +40537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
         <v>7</v>
       </c>
@@ -40569,7 +40563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
         <v>7</v>
       </c>
@@ -40595,7 +40589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
         <v>7</v>
       </c>
@@ -40621,7 +40615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
         <v>7</v>
       </c>
@@ -40647,7 +40641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
         <v>7</v>
       </c>
@@ -40673,7 +40667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
         <v>7</v>
       </c>
@@ -40699,7 +40693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
         <v>7</v>
       </c>
@@ -40725,7 +40719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
         <v>7</v>
       </c>
@@ -40751,7 +40745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
         <v>7</v>
       </c>
@@ -40777,7 +40771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
         <v>7</v>
       </c>
@@ -40803,7 +40797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
         <v>7</v>
       </c>
@@ -40829,7 +40823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
         <v>7</v>
       </c>
@@ -40855,7 +40849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
         <v>7</v>
       </c>
@@ -40881,7 +40875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
         <v>7</v>
       </c>
@@ -40907,7 +40901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
         <v>7</v>
       </c>
@@ -40933,7 +40927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
         <v>7</v>
       </c>
@@ -40959,7 +40953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
         <v>7</v>
       </c>
@@ -40985,7 +40979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
         <v>7</v>
       </c>
@@ -41011,7 +41005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
         <v>7</v>
       </c>
@@ -41037,7 +41031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
         <v>7</v>
       </c>
@@ -41063,7 +41057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
         <v>7</v>
       </c>
@@ -41089,7 +41083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
         <v>7</v>
       </c>
@@ -41115,7 +41109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
         <v>7</v>
       </c>
@@ -41141,7 +41135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
         <v>7</v>
       </c>
@@ -41167,7 +41161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
         <v>7</v>
       </c>
@@ -41193,7 +41187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
         <v>7</v>
       </c>
@@ -41219,7 +41213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
         <v>7</v>
       </c>
@@ -41245,7 +41239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
         <v>7</v>
       </c>
@@ -41271,7 +41265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
         <v>7</v>
       </c>
@@ -41297,7 +41291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
         <v>7</v>
       </c>
@@ -41323,7 +41317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
         <v>7</v>
       </c>
@@ -41349,7 +41343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
         <v>7</v>
       </c>
@@ -41375,7 +41369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
         <v>7</v>
       </c>
@@ -41401,7 +41395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
         <v>7</v>
       </c>
@@ -41427,7 +41421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
         <v>7</v>
       </c>
@@ -41453,7 +41447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
         <v>7</v>
       </c>
@@ -41479,7 +41473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
         <v>7</v>
       </c>
@@ -41505,7 +41499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
         <v>7</v>
       </c>
@@ -41531,7 +41525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
         <v>7</v>
       </c>
@@ -41557,7 +41551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
         <v>7</v>
       </c>
@@ -41583,7 +41577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
         <v>7</v>
       </c>
@@ -41609,7 +41603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
         <v>7</v>
       </c>
@@ -41635,7 +41629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
         <v>7</v>
       </c>
@@ -41661,7 +41655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
         <v>7</v>
       </c>
@@ -41687,7 +41681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
         <v>7</v>
       </c>
@@ -41713,7 +41707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
         <v>7</v>
       </c>
@@ -41739,7 +41733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
         <v>7</v>
       </c>
@@ -41765,7 +41759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
         <v>7</v>
       </c>
@@ -41791,7 +41785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
         <v>7</v>
       </c>
@@ -41817,7 +41811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
         <v>7</v>
       </c>
@@ -41843,7 +41837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1564" t="s">
         <v>7</v>
       </c>
@@ -41869,7 +41863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
         <v>7</v>
       </c>
@@ -41895,7 +41889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
         <v>7</v>
       </c>
@@ -41921,7 +41915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
         <v>7</v>
       </c>
@@ -41947,7 +41941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
         <v>7</v>
       </c>
@@ -41973,7 +41967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
         <v>7</v>
       </c>
@@ -41999,7 +41993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
         <v>7</v>
       </c>
@@ -42025,7 +42019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
         <v>7</v>
       </c>
@@ -42051,7 +42045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
         <v>7</v>
       </c>
@@ -42077,7 +42071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
         <v>7</v>
       </c>
@@ -42103,7 +42097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
         <v>7</v>
       </c>
@@ -42129,7 +42123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
         <v>7</v>
       </c>
@@ -42155,7 +42149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1576" t="s">
         <v>7</v>
       </c>
@@ -42181,7 +42175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1577" t="s">
         <v>7</v>
       </c>
@@ -42207,7 +42201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1578" t="s">
         <v>7</v>
       </c>
@@ -42233,7 +42227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
         <v>7</v>
       </c>
@@ -42259,7 +42253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
         <v>7</v>
       </c>
@@ -42285,7 +42279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1581" t="s">
         <v>7</v>
       </c>
@@ -42311,7 +42305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1582" t="s">
         <v>7</v>
       </c>
@@ -42337,7 +42331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1583" t="s">
         <v>7</v>
       </c>
@@ -42363,7 +42357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1584" t="s">
         <v>7</v>
       </c>
@@ -42389,7 +42383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1585" t="s">
         <v>7</v>
       </c>
@@ -42415,7 +42409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1586" t="s">
         <v>7</v>
       </c>
@@ -42441,7 +42435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1587" t="s">
         <v>7</v>
       </c>
@@ -42467,7 +42461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1588" t="s">
         <v>7</v>
       </c>
@@ -42493,7 +42487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1589" t="s">
         <v>7</v>
       </c>
@@ -42519,7 +42513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1590" t="s">
         <v>7</v>
       </c>
@@ -42545,7 +42539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1591" t="s">
         <v>7</v>
       </c>
@@ -42571,7 +42565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1592" t="s">
         <v>7</v>
       </c>
@@ -42597,7 +42591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1593" t="s">
         <v>7</v>
       </c>
@@ -42623,7 +42617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1594" t="s">
         <v>7</v>
       </c>
@@ -42649,7 +42643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1595" t="s">
         <v>7</v>
       </c>
@@ -42675,7 +42669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1596" t="s">
         <v>7</v>
       </c>
@@ -42701,7 +42695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1597" t="s">
         <v>7</v>
       </c>
@@ -42727,7 +42721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
         <v>7</v>
       </c>
@@ -42753,7 +42747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
         <v>7</v>
       </c>
@@ -42779,7 +42773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
         <v>7</v>
       </c>
@@ -42805,7 +42799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1601" t="s">
         <v>7</v>
       </c>
@@ -42831,7 +42825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1602" t="s">
         <v>7</v>
       </c>
@@ -42857,7 +42851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1603" t="s">
         <v>7</v>
       </c>
@@ -42883,7 +42877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1604" t="s">
         <v>7</v>
       </c>
@@ -42909,7 +42903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1605" t="s">
         <v>7</v>
       </c>
@@ -42935,7 +42929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1606" t="s">
         <v>7</v>
       </c>
@@ -42961,7 +42955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1607" t="s">
         <v>7</v>
       </c>
@@ -42987,7 +42981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1608" t="s">
         <v>7</v>
       </c>
@@ -43013,7 +43007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1609" t="s">
         <v>7</v>
       </c>
@@ -43039,7 +43033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1610" t="s">
         <v>7</v>
       </c>
@@ -43065,7 +43059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1611" t="s">
         <v>7</v>
       </c>
@@ -43091,7 +43085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1612" t="s">
         <v>7</v>
       </c>
@@ -43117,7 +43111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1613" t="s">
         <v>7</v>
       </c>
@@ -43143,7 +43137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1614" t="s">
         <v>7</v>
       </c>
@@ -43169,7 +43163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1615" t="s">
         <v>7</v>
       </c>
@@ -43195,7 +43189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1616" t="s">
         <v>7</v>
       </c>
@@ -43221,7 +43215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1617" t="s">
         <v>7</v>
       </c>
@@ -43247,7 +43241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1618" t="s">
         <v>7</v>
       </c>
@@ -43273,7 +43267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1619" t="s">
         <v>7</v>
       </c>
@@ -43299,7 +43293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1620" t="s">
         <v>7</v>
       </c>
@@ -43325,7 +43319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1621" t="s">
         <v>7</v>
       </c>
@@ -43351,7 +43345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1622" t="s">
         <v>7</v>
       </c>
@@ -43377,7 +43371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1623" t="s">
         <v>7</v>
       </c>
@@ -43403,7 +43397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
         <v>7</v>
       </c>
@@ -43429,7 +43423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1625" t="s">
         <v>7</v>
       </c>
@@ -43455,7 +43449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1626" t="s">
         <v>7</v>
       </c>
@@ -43481,7 +43475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1627" t="s">
         <v>7</v>
       </c>
@@ -43507,7 +43501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1628" t="s">
         <v>7</v>
       </c>
@@ -43533,7 +43527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1629" t="s">
         <v>7</v>
       </c>
@@ -43559,7 +43553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1630" t="s">
         <v>7</v>
       </c>
@@ -43585,7 +43579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1631" t="s">
         <v>7</v>
       </c>
@@ -43611,7 +43605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1632" t="s">
         <v>7</v>
       </c>
@@ -43637,7 +43631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1633" t="s">
         <v>7</v>
       </c>
@@ -43663,7 +43657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1634" t="s">
         <v>7</v>
       </c>
@@ -43689,7 +43683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
         <v>7</v>
       </c>
@@ -43715,7 +43709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
         <v>7</v>
       </c>
@@ -43741,7 +43735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1637" t="s">
         <v>7</v>
       </c>
@@ -43767,7 +43761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1638" t="s">
         <v>7</v>
       </c>
@@ -43793,7 +43787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
         <v>7</v>
       </c>
@@ -43819,7 +43813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
         <v>7</v>
       </c>
@@ -43845,7 +43839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
         <v>7</v>
       </c>
@@ -43871,7 +43865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1642" t="s">
         <v>7</v>
       </c>
@@ -43897,7 +43891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1643" t="s">
         <v>7</v>
       </c>
@@ -43923,7 +43917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1644" t="s">
         <v>7</v>
       </c>
@@ -43949,7 +43943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1645" t="s">
         <v>7</v>
       </c>
@@ -43975,7 +43969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1646" t="s">
         <v>7</v>
       </c>
@@ -44001,7 +43995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1647" t="s">
         <v>7</v>
       </c>
@@ -44027,7 +44021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1648" t="s">
         <v>7</v>
       </c>
@@ -44053,7 +44047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1649" t="s">
         <v>7</v>
       </c>
@@ -44079,7 +44073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1650" t="s">
         <v>7</v>
       </c>
@@ -44105,7 +44099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1651" t="s">
         <v>7</v>
       </c>
@@ -44131,7 +44125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1652" t="s">
         <v>7</v>
       </c>
@@ -44157,7 +44151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1653" t="s">
         <v>7</v>
       </c>
@@ -44183,7 +44177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1654" t="s">
         <v>7</v>
       </c>
@@ -44209,7 +44203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1655" t="s">
         <v>7</v>
       </c>
@@ -44235,7 +44229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
         <v>7</v>
       </c>
@@ -44261,7 +44255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1657" t="s">
         <v>7</v>
       </c>
@@ -44287,7 +44281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1658" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1658" t="s">
         <v>7</v>
       </c>
@@ -44313,7 +44307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
         <v>7</v>
       </c>
@@ -44339,7 +44333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1660" t="s">
         <v>7</v>
       </c>
@@ -44365,7 +44359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
         <v>7</v>
       </c>
@@ -44391,7 +44385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
         <v>7</v>
       </c>
@@ -44417,7 +44411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
         <v>7</v>
       </c>
@@ -44443,7 +44437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1664" t="s">
         <v>7</v>
       </c>
@@ -44469,7 +44463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1665" t="s">
         <v>7</v>
       </c>
@@ -44495,7 +44489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1666" t="s">
         <v>7</v>
       </c>
@@ -44521,7 +44515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
         <v>7</v>
       </c>
@@ -44547,7 +44541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1668" t="s">
         <v>7</v>
       </c>
@@ -44573,7 +44567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1669" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1669" t="s">
         <v>7</v>
       </c>
@@ -44599,7 +44593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1670" t="s">
         <v>7</v>
       </c>
@@ -44625,7 +44619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1671" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1671" t="s">
         <v>7</v>
       </c>
@@ -44651,7 +44645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1672" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
         <v>7</v>
       </c>
@@ -44677,7 +44671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
         <v>7</v>
       </c>
@@ -44703,7 +44697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
         <v>7</v>
       </c>
@@ -44729,7 +44723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1675" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1675" t="s">
         <v>7</v>
       </c>
@@ -44755,7 +44749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1676" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1676" t="s">
         <v>7</v>
       </c>
@@ -44781,7 +44775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1677" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1677" t="s">
         <v>7</v>
       </c>
@@ -44807,7 +44801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
         <v>7</v>
       </c>
@@ -44833,7 +44827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1679" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1679" t="s">
         <v>7</v>
       </c>
@@ -44859,7 +44853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1680" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1680" t="s">
         <v>7</v>
       </c>
@@ -44885,7 +44879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1681" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1681" t="s">
         <v>7</v>
       </c>
@@ -44911,7 +44905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1682" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1682" t="s">
         <v>7</v>
       </c>
@@ -44937,7 +44931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1683" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1683" t="s">
         <v>7</v>
       </c>
@@ -44963,7 +44957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1684" t="s">
         <v>7</v>
       </c>
@@ -44989,7 +44983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1685" t="s">
         <v>7</v>
       </c>
@@ -45015,7 +45009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1686" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1686" t="s">
         <v>7</v>
       </c>
@@ -45041,7 +45035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1687" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1687" t="s">
         <v>7</v>
       </c>
@@ -45067,7 +45061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1688" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1688" t="s">
         <v>7</v>
       </c>
@@ -45093,7 +45087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1689" t="s">
         <v>7</v>
       </c>
@@ -45119,7 +45113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1690" t="s">
         <v>7</v>
       </c>
@@ -45145,7 +45139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1691" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1691" t="s">
         <v>7</v>
       </c>
@@ -45171,7 +45165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1692" t="s">
         <v>7</v>
       </c>
@@ -45197,7 +45191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1693" t="s">
         <v>7</v>
       </c>
@@ -45223,7 +45217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1694" t="s">
         <v>7</v>
       </c>
@@ -45249,7 +45243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1695" t="s">
         <v>7</v>
       </c>
@@ -45275,7 +45269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1696" t="s">
         <v>7</v>
       </c>
@@ -45301,7 +45295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1697" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1697" t="s">
         <v>7</v>
       </c>
@@ -45327,7 +45321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1698" t="s">
         <v>7</v>
       </c>
@@ -45353,7 +45347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1699" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1699" t="s">
         <v>7</v>
       </c>
@@ -45379,7 +45373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1700" t="s">
         <v>7</v>
       </c>
@@ -45405,7 +45399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1701" t="s">
         <v>7</v>
       </c>
@@ -45431,7 +45425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1702" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1702" t="s">
         <v>7</v>
       </c>
@@ -45457,7 +45451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1703" t="s">
         <v>7</v>
       </c>
@@ -45483,7 +45477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1704" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1704" t="s">
         <v>7</v>
       </c>
@@ -45509,7 +45503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1705" t="s">
         <v>7</v>
       </c>
@@ -45535,7 +45529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1706" t="s">
         <v>7</v>
       </c>
@@ -45561,7 +45555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1707" t="s">
         <v>7</v>
       </c>
@@ -45587,7 +45581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1708" t="s">
         <v>7</v>
       </c>
@@ -45613,7 +45607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1709" t="s">
         <v>7</v>
       </c>
@@ -45639,7 +45633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1710" t="s">
         <v>7</v>
       </c>
@@ -45665,7 +45659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1711" t="s">
         <v>7</v>
       </c>
@@ -45691,7 +45685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1712" t="s">
         <v>7</v>
       </c>
@@ -45717,7 +45711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1713" t="s">
         <v>7</v>
       </c>
@@ -45743,7 +45737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1714" t="s">
         <v>7</v>
       </c>
@@ -45769,7 +45763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1715" t="s">
         <v>7</v>
       </c>
@@ -45795,7 +45789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1716" t="s">
         <v>7</v>
       </c>
@@ -45821,7 +45815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1717" t="s">
         <v>7</v>
       </c>
@@ -45847,7 +45841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1718" t="s">
         <v>7</v>
       </c>
@@ -45873,7 +45867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1719" t="s">
         <v>7</v>
       </c>
@@ -45899,7 +45893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1720" t="s">
         <v>7</v>
       </c>
@@ -45925,7 +45919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1721" t="s">
         <v>7</v>
       </c>
@@ -45951,7 +45945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1722" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1722" t="s">
         <v>7</v>
       </c>
@@ -45977,7 +45971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1723" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1723" t="s">
         <v>7</v>
       </c>
@@ -46003,7 +45997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1724" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1724" t="s">
         <v>7</v>
       </c>
@@ -46029,7 +46023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1725" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1725" t="s">
         <v>7</v>
       </c>
@@ -46055,7 +46049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1726" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1726" t="s">
         <v>7</v>
       </c>
@@ -46081,7 +46075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1727" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1727" t="s">
         <v>7</v>
       </c>
@@ -46107,7 +46101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1728" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1728" t="s">
         <v>7</v>
       </c>
@@ -46133,7 +46127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1729" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1729" t="s">
         <v>7</v>
       </c>
@@ -46159,7 +46153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1730" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
         <v>7</v>
       </c>
@@ -46185,7 +46179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1731" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
         <v>7</v>
       </c>
@@ -46211,7 +46205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1732" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1732" t="s">
         <v>7</v>
       </c>
@@ -46237,7 +46231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1733" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1733" t="s">
         <v>7</v>
       </c>
@@ -46263,7 +46257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1734" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1734" t="s">
         <v>7</v>
       </c>
@@ -46289,7 +46283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1735" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1735" t="s">
         <v>7</v>
       </c>
@@ -46315,7 +46309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1736" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1736" t="s">
         <v>7</v>
       </c>
@@ -46341,7 +46335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1737" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1737" t="s">
         <v>7</v>
       </c>
@@ -46367,7 +46361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1738" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1738" t="s">
         <v>7</v>
       </c>
@@ -46393,7 +46387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1739" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1739" t="s">
         <v>7</v>
       </c>
@@ -46419,7 +46413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1740" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1740" t="s">
         <v>7</v>
       </c>
@@ -46445,7 +46439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1741" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1741" t="s">
         <v>7</v>
       </c>
@@ -46471,7 +46465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1742" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1742" t="s">
         <v>7</v>
       </c>
@@ -46497,7 +46491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1743" t="s">
         <v>7</v>
       </c>
@@ -46523,7 +46517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1744" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1744" t="s">
         <v>7</v>
       </c>
@@ -46549,7 +46543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1745" t="s">
         <v>7</v>
       </c>
@@ -46575,7 +46569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
         <v>7</v>
       </c>
@@ -46601,7 +46595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1747" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
         <v>7</v>
       </c>
@@ -46627,7 +46621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1748" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1748" t="s">
         <v>7</v>
       </c>
@@ -46653,7 +46647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1749" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
         <v>7</v>
       </c>
@@ -46679,7 +46673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1750" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1750" t="s">
         <v>7</v>
       </c>
@@ -46705,7 +46699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1751" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1751" t="s">
         <v>7</v>
       </c>
@@ -46731,7 +46725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1752" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1752" t="s">
         <v>7</v>
       </c>
@@ -46757,7 +46751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1753" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1753" t="s">
         <v>7</v>
       </c>
@@ -46783,7 +46777,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1754" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/optimization model/data/input-time-series.xlsx
+++ b/optimization model/data/input-time-series.xlsx
@@ -193,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -226,6 +226,7 @@
     <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -292,7 +293,7 @@
   <autoFilter ref="A1:H1753">
     <filterColumn colId="3">
       <filters>
-        <filter val="Price|Heat pump|Electricity"/>
+        <filter val="Price|Natural gas"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -599,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B773" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G602" sqref="G602:G793"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F409" sqref="F409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6281,7 +6282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6385,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>7</v>
       </c>
@@ -6437,7 +6438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>7</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>7</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>7</v>
       </c>
@@ -6593,7 +6594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>7</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>7</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>7</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>7</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>7</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>7</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>7</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>7</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>7</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>7</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>7</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>7</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>7</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>7</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>7</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>7</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>7</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>7</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>7</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>7</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>7</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>7</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>7</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>7</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>7</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>7</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>7</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>7</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>7</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>7</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>7</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>7</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>7</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>7</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>7</v>
       </c>
@@ -7607,7 +7608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>7</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>7</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>7</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>7</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>7</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>7</v>
       </c>
@@ -7763,7 +7764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>7</v>
       </c>
@@ -7789,7 +7790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>7</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>7</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>7</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>7</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>7</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>7</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>7</v>
       </c>
@@ -7997,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>7</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>7</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>7</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>7</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>7</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>7</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>7</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>7</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>7</v>
       </c>
@@ -8257,7 +8258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>7</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>7</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>7</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>7</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>7</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>7</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>7</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>7</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>7</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>7</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>7</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>7</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>7</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>7</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>7</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>7</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>7</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>7</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>7</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>7</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>7</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>7</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>7</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>7</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>7</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>7</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>7</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>7</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>7</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>7</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>7</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>7</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>7</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>7</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>7</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>7</v>
       </c>
@@ -9219,7 +9220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>7</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>7</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>7</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>7</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>7</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>7</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>7</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>7</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>7</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>7</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>7</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>7</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>7</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>7</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>7</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>7</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>7</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>7</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>7</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>7</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>7</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>7</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>7</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>7</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>7</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>7</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>7</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>7</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>7</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>7</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>7</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>7</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>7</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>7</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>7</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>7</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>7</v>
       </c>
@@ -10207,7 +10208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>7</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>7</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>7</v>
       </c>
@@ -10285,7 +10286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>7</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>7</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>7</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>7</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>7</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>7</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>7</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>7</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>7</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>7</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>7</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>7</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>7</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>7</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>7</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>7</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>7</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>7</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>7</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>7</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>7</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>7</v>
       </c>
@@ -10857,7 +10858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>7</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>7</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>7</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>7</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>7</v>
       </c>
@@ -10987,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>7</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>7</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>7</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>7</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>7</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>7</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>7</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>7</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>7</v>
       </c>
@@ -11240,14 +11241,14 @@
       <c r="F408" s="4">
         <v>2040</v>
       </c>
-      <c r="G408" s="26">
+      <c r="G408" s="15">
         <v>0.05</v>
       </c>
       <c r="H408" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="7" t="s">
         <v>7</v>
       </c>
@@ -11266,14 +11267,14 @@
       <c r="F409" s="7">
         <v>2040</v>
       </c>
-      <c r="G409" s="27">
+      <c r="G409" s="30">
         <v>0.05</v>
       </c>
       <c r="H409" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>7</v>
       </c>
@@ -11299,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>7</v>
       </c>
@@ -11325,7 +11326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>7</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>7</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>7</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>7</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>7</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>7</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>7</v>
       </c>
@@ -11507,7 +11508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>7</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>7</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>7</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>7</v>
       </c>
@@ -11611,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>7</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>7</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>7</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>7</v>
       </c>
@@ -11715,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>7</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>7</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>7</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>7</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>7</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>7</v>
       </c>
@@ -11871,7 +11872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>7</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>7</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>7</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>7</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>7</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>7</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>7</v>
       </c>
@@ -12053,7 +12054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>7</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>7</v>
       </c>
@@ -12105,7 +12106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>7</v>
       </c>
@@ -12131,7 +12132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>7</v>
       </c>
@@ -12157,7 +12158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>7</v>
       </c>
@@ -12183,7 +12184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>7</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>7</v>
       </c>
@@ -12235,7 +12236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>7</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>7</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>7</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>7</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>7</v>
       </c>
@@ -12365,7 +12366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>7</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>7</v>
       </c>
@@ -12417,7 +12418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>7</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>7</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>7</v>
       </c>
@@ -12495,7 +12496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>7</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>7</v>
       </c>
@@ -12547,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>7</v>
       </c>
@@ -12573,7 +12574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>7</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>7</v>
       </c>
@@ -12625,7 +12626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>7</v>
       </c>
@@ -12651,7 +12652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>7</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>7</v>
       </c>
@@ -12703,7 +12704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>7</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>7</v>
       </c>
@@ -12781,7 +12782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>7</v>
       </c>
@@ -12807,7 +12808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>7</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>7</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>7</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>7</v>
       </c>
@@ -12911,7 +12912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>7</v>
       </c>
@@ -12937,7 +12938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>7</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>7</v>
       </c>
@@ -12989,7 +12990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>7</v>
       </c>
@@ -13015,7 +13016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>7</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>7</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>7</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>7</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>7</v>
       </c>
@@ -13145,7 +13146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>7</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>7</v>
       </c>
@@ -13197,7 +13198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>7</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>7</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>7</v>
       </c>
@@ -13275,7 +13276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>7</v>
       </c>
@@ -13301,7 +13302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>7</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>7</v>
       </c>
@@ -13353,7 +13354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>7</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>7</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>7</v>
       </c>
@@ -13431,7 +13432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>7</v>
       </c>
@@ -13457,7 +13458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>7</v>
       </c>
@@ -13483,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>7</v>
       </c>
@@ -13509,7 +13510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>7</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>7</v>
       </c>
@@ -13561,7 +13562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>7</v>
       </c>
@@ -13587,7 +13588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>7</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>7</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>7</v>
       </c>
@@ -13665,7 +13666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>7</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>7</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>7</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>7</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>7</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>7</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>7</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>7</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>7</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>7</v>
       </c>
@@ -13925,7 +13926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>7</v>
       </c>
@@ -13951,7 +13952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>7</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>7</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>7</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>7</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>7</v>
       </c>
@@ -14081,7 +14082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>7</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>7</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>7</v>
       </c>
@@ -14159,7 +14160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>7</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>7</v>
       </c>
@@ -14211,7 +14212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>7</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>7</v>
       </c>
@@ -14263,7 +14264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>7</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>7</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>7</v>
       </c>
@@ -14341,7 +14342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>7</v>
       </c>
@@ -14367,7 +14368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>7</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>7</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>7</v>
       </c>
@@ -14445,7 +14446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>7</v>
       </c>
@@ -14471,7 +14472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>7</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>7</v>
       </c>
@@ -14523,7 +14524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>7</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>7</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>7</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>7</v>
       </c>
@@ -14653,7 +14654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>7</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>7</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>7</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>7</v>
       </c>
@@ -14757,7 +14758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>7</v>
       </c>
@@ -14783,7 +14784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>7</v>
       </c>
@@ -14809,7 +14810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>7</v>
       </c>
@@ -14835,7 +14836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>7</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>7</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>7</v>
       </c>
@@ -14913,7 +14914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>7</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>7</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>7</v>
       </c>
@@ -15017,7 +15018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>7</v>
       </c>
@@ -15043,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>7</v>
       </c>
@@ -15069,7 +15070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>7</v>
       </c>
@@ -15095,7 +15096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>7</v>
       </c>
@@ -15121,7 +15122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>7</v>
       </c>
@@ -15147,7 +15148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>7</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>7</v>
       </c>
@@ -15199,7 +15200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>7</v>
       </c>
@@ -15225,7 +15226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>7</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>7</v>
       </c>
@@ -15277,7 +15278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>7</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>7</v>
       </c>
@@ -15329,7 +15330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>7</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>7</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>7</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>7</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>7</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>7</v>
       </c>
@@ -15485,7 +15486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>7</v>
       </c>
@@ -15511,7 +15512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>7</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>7</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>7</v>
       </c>
@@ -15589,7 +15590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>7</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>7</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>7</v>
       </c>
@@ -15667,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>7</v>
       </c>
@@ -15693,7 +15694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>7</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>7</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>7</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>7</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>7</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>7</v>
       </c>
@@ -15849,7 +15850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>7</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>7</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>7</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>7</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>7</v>
       </c>
@@ -15979,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>7</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>7</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>7</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>7</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>7</v>
       </c>
@@ -16109,7 +16110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>7</v>
       </c>
@@ -16135,7 +16136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>7</v>
       </c>
@@ -16161,7 +16162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>7</v>
       </c>
@@ -16187,7 +16188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>7</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>7</v>
       </c>
@@ -16239,7 +16240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="7" t="s">
         <v>7</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>7</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>7</v>
       </c>
@@ -16317,7 +16318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>7</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>7</v>
       </c>
@@ -16369,7 +16370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>7</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>7</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>7</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>7</v>
       </c>
@@ -16473,7 +16474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>7</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>7</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>7</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
         <v>7</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
         <v>7</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
         <v>7</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
         <v>7</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
         <v>7</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
         <v>7</v>
       </c>
@@ -16707,7 +16708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
         <v>7</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
         <v>7</v>
       </c>
@@ -16759,7 +16760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
         <v>7</v>
       </c>
@@ -16785,7 +16786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
         <v>7</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
         <v>7</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
         <v>7</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
         <v>7</v>
       </c>
@@ -16889,7 +16890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
         <v>7</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
         <v>7</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
         <v>7</v>
       </c>
@@ -16967,7 +16968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
         <v>7</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
         <v>7</v>
       </c>
@@ -17019,7 +17020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>7</v>
       </c>
@@ -17045,7 +17046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>7</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>7</v>
       </c>
@@ -17097,7 +17098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>7</v>
       </c>
@@ -17123,7 +17124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>7</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>7</v>
       </c>
@@ -17175,7 +17176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>7</v>
       </c>
@@ -17201,7 +17202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>7</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>7</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
         <v>7</v>
       </c>
@@ -17279,7 +17280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
         <v>7</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
         <v>7</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
         <v>7</v>
       </c>
@@ -17357,7 +17358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
         <v>7</v>
       </c>
@@ -17383,7 +17384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
         <v>7</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
         <v>7</v>
       </c>
@@ -17435,7 +17436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
         <v>7</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
         <v>7</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
         <v>7</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A650" s="4" t="s">
         <v>7</v>
       </c>
@@ -17539,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A651" s="4" t="s">
         <v>7</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A652" s="4" t="s">
         <v>7</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A653" s="4" t="s">
         <v>7</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A654" s="4" t="s">
         <v>7</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A655" s="4" t="s">
         <v>7</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A656" s="4" t="s">
         <v>7</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A657" s="4" t="s">
         <v>7</v>
       </c>
@@ -17721,7 +17722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A658" s="4" t="s">
         <v>7</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A659" s="4" t="s">
         <v>7</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A660" s="4" t="s">
         <v>7</v>
       </c>
@@ -17799,7 +17800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A661" s="4" t="s">
         <v>7</v>
       </c>
@@ -17825,7 +17826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A662" s="4" t="s">
         <v>7</v>
       </c>
@@ -17851,7 +17852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A663" s="4" t="s">
         <v>7</v>
       </c>
@@ -17877,7 +17878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A664" s="4" t="s">
         <v>7</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A665" s="4" t="s">
         <v>7</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A666" s="4" t="s">
         <v>7</v>
       </c>
@@ -17955,7 +17956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A667" s="4" t="s">
         <v>7</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A668" s="4" t="s">
         <v>7</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A669" s="4" t="s">
         <v>7</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A670" s="4" t="s">
         <v>7</v>
       </c>
@@ -18059,7 +18060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
         <v>7</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
         <v>7</v>
       </c>
@@ -18111,7 +18112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
         <v>7</v>
       </c>
@@ -18137,7 +18138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
         <v>7</v>
       </c>
@@ -18163,7 +18164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
         <v>7</v>
       </c>
@@ -18189,7 +18190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
         <v>7</v>
       </c>
@@ -18215,7 +18216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A677" s="4" t="s">
         <v>7</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A678" s="4" t="s">
         <v>7</v>
       </c>
@@ -18267,7 +18268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A679" s="4" t="s">
         <v>7</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A680" s="4" t="s">
         <v>7</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A681" s="4" t="s">
         <v>7</v>
       </c>
@@ -18345,7 +18346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A682" s="4" t="s">
         <v>7</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A683" s="4" t="s">
         <v>7</v>
       </c>
@@ -18397,7 +18398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A684" s="4" t="s">
         <v>7</v>
       </c>
@@ -18423,7 +18424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A685" s="4" t="s">
         <v>7</v>
       </c>
@@ -18449,7 +18450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A686" s="4" t="s">
         <v>7</v>
       </c>
@@ -18475,7 +18476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A687" s="4" t="s">
         <v>7</v>
       </c>
@@ -18501,7 +18502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A688" s="4" t="s">
         <v>7</v>
       </c>
@@ -18527,7 +18528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A689" s="4" t="s">
         <v>7</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A690" s="4" t="s">
         <v>7</v>
       </c>
@@ -18579,7 +18580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A691" s="4" t="s">
         <v>7</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A692" s="4" t="s">
         <v>7</v>
       </c>
@@ -18631,7 +18632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A693" s="4" t="s">
         <v>7</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A694" s="4" t="s">
         <v>7</v>
       </c>
@@ -18683,7 +18684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A695" s="4" t="s">
         <v>7</v>
       </c>
@@ -18709,7 +18710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A696" s="4" t="s">
         <v>7</v>
       </c>
@@ -18735,7 +18736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A697" s="4" t="s">
         <v>7</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A698" s="4" t="s">
         <v>7</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A699" s="4" t="s">
         <v>7</v>
       </c>
@@ -18813,7 +18814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A700" s="4" t="s">
         <v>7</v>
       </c>
@@ -18839,7 +18840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A701" s="4" t="s">
         <v>7</v>
       </c>
@@ -18865,7 +18866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A702" s="4" t="s">
         <v>7</v>
       </c>
@@ -18891,7 +18892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A703" s="4" t="s">
         <v>7</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A704" s="4" t="s">
         <v>7</v>
       </c>
@@ -18943,7 +18944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A705" s="4" t="s">
         <v>7</v>
       </c>
@@ -18969,7 +18970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A706" s="4" t="s">
         <v>7</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A707" s="4" t="s">
         <v>7</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A708" s="4" t="s">
         <v>7</v>
       </c>
@@ -19047,7 +19048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A709" s="4" t="s">
         <v>7</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A710" s="4" t="s">
         <v>7</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A711" s="4" t="s">
         <v>7</v>
       </c>
@@ -19125,7 +19126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A712" s="4" t="s">
         <v>7</v>
       </c>
@@ -19151,7 +19152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A713" s="4" t="s">
         <v>7</v>
       </c>
@@ -19177,7 +19178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>7</v>
       </c>
@@ -19203,7 +19204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A715" s="4" t="s">
         <v>7</v>
       </c>
@@ -19229,7 +19230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A716" s="4" t="s">
         <v>7</v>
       </c>
@@ -19255,7 +19256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A717" s="4" t="s">
         <v>7</v>
       </c>
@@ -19281,7 +19282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A718" s="4" t="s">
         <v>7</v>
       </c>
@@ -19307,7 +19308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A719" s="4" t="s">
         <v>7</v>
       </c>
@@ -19333,7 +19334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A720" s="4" t="s">
         <v>7</v>
       </c>
@@ -19359,7 +19360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A721" s="4" t="s">
         <v>7</v>
       </c>
@@ -19385,7 +19386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A722" s="4" t="s">
         <v>7</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A723" s="4" t="s">
         <v>7</v>
       </c>
@@ -19437,7 +19438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A724" s="4" t="s">
         <v>7</v>
       </c>
@@ -19463,7 +19464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A725" s="4" t="s">
         <v>7</v>
       </c>
@@ -19489,7 +19490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A726" s="4" t="s">
         <v>7</v>
       </c>
@@ -19515,7 +19516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A727" s="4" t="s">
         <v>7</v>
       </c>
@@ -19541,7 +19542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A728" s="4" t="s">
         <v>7</v>
       </c>
@@ -19567,7 +19568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A729" s="4" t="s">
         <v>7</v>
       </c>
@@ -19593,7 +19594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A730" s="4" t="s">
         <v>7</v>
       </c>
@@ -19619,7 +19620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A731" s="4" t="s">
         <v>7</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A732" s="4" t="s">
         <v>7</v>
       </c>
@@ -19671,7 +19672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A733" s="4" t="s">
         <v>7</v>
       </c>
@@ -19697,7 +19698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A734" s="4" t="s">
         <v>7</v>
       </c>
@@ -19723,7 +19724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A735" s="4" t="s">
         <v>7</v>
       </c>
@@ -19749,7 +19750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A736" s="4" t="s">
         <v>7</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A737" s="4" t="s">
         <v>7</v>
       </c>
@@ -19801,7 +19802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A738" s="4" t="s">
         <v>7</v>
       </c>
@@ -19827,7 +19828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A739" s="4" t="s">
         <v>7</v>
       </c>
@@ -19853,7 +19854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A740" s="4" t="s">
         <v>7</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A741" s="4" t="s">
         <v>7</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A742" s="4" t="s">
         <v>7</v>
       </c>
@@ -19931,7 +19932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A743" s="4" t="s">
         <v>7</v>
       </c>
@@ -19957,7 +19958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A744" s="4" t="s">
         <v>7</v>
       </c>
@@ -19983,7 +19984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A745" s="4" t="s">
         <v>7</v>
       </c>
@@ -20009,7 +20010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A746" s="4" t="s">
         <v>7</v>
       </c>
@@ -20035,7 +20036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A747" s="4" t="s">
         <v>7</v>
       </c>
@@ -20061,7 +20062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A748" s="4" t="s">
         <v>7</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A749" s="4" t="s">
         <v>7</v>
       </c>
@@ -20113,7 +20114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A750" s="4" t="s">
         <v>7</v>
       </c>
@@ -20139,7 +20140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A751" s="4" t="s">
         <v>7</v>
       </c>
@@ -20165,7 +20166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A752" s="4" t="s">
         <v>7</v>
       </c>
@@ -20191,7 +20192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A753" s="4" t="s">
         <v>7</v>
       </c>
@@ -20217,7 +20218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A754" s="4" t="s">
         <v>7</v>
       </c>
@@ -20243,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A755" s="4" t="s">
         <v>7</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A756" s="4" t="s">
         <v>7</v>
       </c>
@@ -20295,7 +20296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A757" s="4" t="s">
         <v>7</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A758" s="4" t="s">
         <v>7</v>
       </c>
@@ -20347,7 +20348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A759" s="4" t="s">
         <v>7</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A760" s="4" t="s">
         <v>7</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A761" s="4" t="s">
         <v>7</v>
       </c>
@@ -20425,7 +20426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A762" s="4" t="s">
         <v>7</v>
       </c>
@@ -20451,7 +20452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A763" s="4" t="s">
         <v>7</v>
       </c>
@@ -20477,7 +20478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A764" s="4" t="s">
         <v>7</v>
       </c>
@@ -20503,7 +20504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A765" s="4" t="s">
         <v>7</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -20555,7 +20556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A767" s="4" t="s">
         <v>7</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A768" s="4" t="s">
         <v>7</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A769" s="4" t="s">
         <v>7</v>
       </c>
@@ -20633,7 +20634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A770" s="4" t="s">
         <v>7</v>
       </c>
@@ -20659,7 +20660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A771" s="4" t="s">
         <v>7</v>
       </c>
@@ -20685,7 +20686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
         <v>7</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A773" s="4" t="s">
         <v>7</v>
       </c>
@@ -20737,7 +20738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A774" s="4" t="s">
         <v>7</v>
       </c>
@@ -20763,7 +20764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A775" s="4" t="s">
         <v>7</v>
       </c>
@@ -20789,7 +20790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A776" s="4" t="s">
         <v>7</v>
       </c>
@@ -20815,7 +20816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A777" s="4" t="s">
         <v>7</v>
       </c>
@@ -20841,7 +20842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A778" s="4" t="s">
         <v>7</v>
       </c>
@@ -20867,7 +20868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A779" s="4" t="s">
         <v>7</v>
       </c>
@@ -20893,7 +20894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A780" s="4" t="s">
         <v>7</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A781" s="4" t="s">
         <v>7</v>
       </c>
@@ -20945,7 +20946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A782" s="4" t="s">
         <v>7</v>
       </c>
@@ -20971,7 +20972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A783" s="4" t="s">
         <v>7</v>
       </c>
@@ -20997,7 +20998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A784" s="4" t="s">
         <v>7</v>
       </c>
@@ -21023,7 +21024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
         <v>7</v>
       </c>
@@ -21049,7 +21050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
         <v>7</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
         <v>7</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
         <v>7</v>
       </c>
@@ -21127,7 +21128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
         <v>7</v>
       </c>
@@ -21153,7 +21154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
         <v>7</v>
       </c>
@@ -21179,7 +21180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A791" s="4" t="s">
         <v>7</v>
       </c>
@@ -21205,7 +21206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A792" s="4" t="s">
         <v>7</v>
       </c>
@@ -21231,7 +21232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:8" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="7" t="s">
         <v>7</v>
       </c>

--- a/optimization model/data/input-time-series.xlsx
+++ b/optimization model/data/input-time-series.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwickl-nb\GitHub\justice-decarbonizing-heat\optimization model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwickl-nb\GitHub\equitable-paper\optimization model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,7 +293,7 @@
   <autoFilter ref="A1:H1753">
     <filterColumn colId="3">
       <filters>
-        <filter val="Price|Natural gas"/>
+        <filter val="Emissions|District heating"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -601,7 +601,7 @@
   <dimension ref="A1:U1754"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F409" sqref="F409"/>
+      <selection activeCell="J804" sqref="J804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6282,7 +6282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>7</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>7</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>7</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>7</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>7</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>7</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>7</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>7</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>7</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>7</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>7</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>7</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>7</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>7</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>7</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>7</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>7</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>7</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>7</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>7</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>7</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>7</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>7</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>7</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>7</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>7</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>7</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>7</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>7</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>7</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>7</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>7</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>7</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>7</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>7</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>7</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>7</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>7</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>7</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>7</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>7</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>7</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>7</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>7</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>7</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>7</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>7</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>7</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>7</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>7</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>7</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>7</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>7</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>7</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>7</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>7</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>7</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>7</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>7</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>7</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>7</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>7</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>7</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>7</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>7</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>7</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>7</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>7</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>7</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>7</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>7</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>7</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>7</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>7</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>7</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>7</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>7</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>7</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>7</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>7</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>7</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>7</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>7</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>7</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>7</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>7</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>7</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>7</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>7</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>7</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>7</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>7</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>7</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>7</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>7</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>7</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>7</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>7</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>7</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>7</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>7</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>7</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>7</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>7</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>7</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>7</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>7</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>7</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>7</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>7</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>7</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>7</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>7</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>7</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>7</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>7</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>7</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>7</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>7</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>7</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>7</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>7</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>7</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>7</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>7</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>7</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>7</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>7</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>7</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>7</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>7</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>7</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>7</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>7</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>7</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>7</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>7</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>7</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>7</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>7</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>7</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>7</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>7</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>7</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>7</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>7</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>7</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>7</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>7</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>7</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>7</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>7</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>7</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>7</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>7</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>7</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>7</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>7</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>7</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>7</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>7</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>7</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>7</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>7</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>7</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>7</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>7</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>7</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>7</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>7</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>7</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>7</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>7</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>7</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>7</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="7" t="s">
         <v>7</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>7</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>7</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>7</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>7</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>7</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>7</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>7</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>7</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>7</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>7</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>7</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>7</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>7</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>7</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>7</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>7</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>7</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>7</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>7</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>7</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>7</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>7</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>7</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>7</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>7</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>7</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>7</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>7</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>7</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>7</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>7</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>7</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>7</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>7</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>7</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>7</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>7</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>7</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>7</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>7</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>7</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>7</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>7</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>7</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>7</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>7</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>7</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>7</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>7</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>7</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>7</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>7</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>7</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>7</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>7</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>7</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>7</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>7</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>7</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>7</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>7</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>7</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>7</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>7</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>7</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>7</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>7</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>7</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>7</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>7</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>7</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>7</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>7</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>7</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>7</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>7</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>7</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>7</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>7</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>7</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>7</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>7</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>7</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>7</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>7</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>7</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>7</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>7</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>7</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>7</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>7</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>7</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>7</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>7</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>7</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>7</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>7</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>7</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>7</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>7</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>7</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>7</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>7</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>7</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>7</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>7</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>7</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>7</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>7</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>7</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>7</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>7</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>7</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>7</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>7</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>7</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>7</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>7</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>7</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>7</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>7</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>7</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>7</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>7</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>7</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>7</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>7</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>7</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>7</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>7</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>7</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>7</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>7</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>7</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>7</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>7</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>7</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>7</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>7</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>7</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>7</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>7</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>7</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>7</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>7</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>7</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>7</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>7</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>7</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>7</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>7</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>7</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>7</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>7</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>7</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>7</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>7</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>7</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>7</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>7</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>7</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>7</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>7</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>7</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>7</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>7</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>7</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>7</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>7</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>7</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>7</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>7</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>7</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>7</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>7</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>7</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>7</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>7</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>7</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>7</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>7</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>7</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>7</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>7</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>7</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>7</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="7" t="s">
         <v>7</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>7</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>7</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>7</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>7</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>7</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>7</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>7</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>7</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>7</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>7</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>7</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
         <v>7</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
         <v>7</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
         <v>7</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
         <v>7</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
         <v>7</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
         <v>7</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
         <v>7</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
         <v>7</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
         <v>7</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
         <v>7</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
         <v>7</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
         <v>7</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
         <v>7</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
         <v>7</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
         <v>7</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
         <v>7</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
         <v>7</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
         <v>7</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>7</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>7</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>7</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>7</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>7</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>7</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>7</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>7</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>7</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
         <v>7</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
         <v>7</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
         <v>7</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
         <v>7</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
         <v>7</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
         <v>7</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
         <v>7</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
         <v>7</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
         <v>7</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
         <v>7</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="4" t="s">
         <v>7</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="4" t="s">
         <v>7</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="4" t="s">
         <v>7</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="4" t="s">
         <v>7</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="4" t="s">
         <v>7</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="4" t="s">
         <v>7</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="4" t="s">
         <v>7</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="4" t="s">
         <v>7</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="4" t="s">
         <v>7</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="4" t="s">
         <v>7</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="4" t="s">
         <v>7</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="4" t="s">
         <v>7</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="4" t="s">
         <v>7</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="4" t="s">
         <v>7</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="4" t="s">
         <v>7</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="4" t="s">
         <v>7</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="4" t="s">
         <v>7</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="4" t="s">
         <v>7</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="4" t="s">
         <v>7</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="4" t="s">
         <v>7</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="4" t="s">
         <v>7</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
         <v>7</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
         <v>7</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
         <v>7</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
         <v>7</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
         <v>7</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
         <v>7</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="4" t="s">
         <v>7</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="4" t="s">
         <v>7</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="4" t="s">
         <v>7</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="4" t="s">
         <v>7</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="4" t="s">
         <v>7</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="4" t="s">
         <v>7</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="4" t="s">
         <v>7</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="4" t="s">
         <v>7</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="4" t="s">
         <v>7</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="4" t="s">
         <v>7</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="4" t="s">
         <v>7</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="4" t="s">
         <v>7</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="4" t="s">
         <v>7</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="4" t="s">
         <v>7</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="4" t="s">
         <v>7</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="4" t="s">
         <v>7</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="4" t="s">
         <v>7</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="4" t="s">
         <v>7</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="4" t="s">
         <v>7</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="4" t="s">
         <v>7</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="4" t="s">
         <v>7</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="4" t="s">
         <v>7</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="4" t="s">
         <v>7</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="4" t="s">
         <v>7</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="4" t="s">
         <v>7</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="4" t="s">
         <v>7</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="4" t="s">
         <v>7</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="4" t="s">
         <v>7</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="4" t="s">
         <v>7</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="4" t="s">
         <v>7</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="4" t="s">
         <v>7</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="4" t="s">
         <v>7</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="4" t="s">
         <v>7</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="4" t="s">
         <v>7</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="4" t="s">
         <v>7</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="4" t="s">
         <v>7</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="4" t="s">
         <v>7</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>7</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="4" t="s">
         <v>7</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="4" t="s">
         <v>7</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="4" t="s">
         <v>7</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="4" t="s">
         <v>7</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="4" t="s">
         <v>7</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="4" t="s">
         <v>7</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="4" t="s">
         <v>7</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="4" t="s">
         <v>7</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="4" t="s">
         <v>7</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="4" t="s">
         <v>7</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="4" t="s">
         <v>7</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="4" t="s">
         <v>7</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="4" t="s">
         <v>7</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="4" t="s">
         <v>7</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="4" t="s">
         <v>7</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="4" t="s">
         <v>7</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="4" t="s">
         <v>7</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="4" t="s">
         <v>7</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="4" t="s">
         <v>7</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="4" t="s">
         <v>7</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="4" t="s">
         <v>7</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="4" t="s">
         <v>7</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="4" t="s">
         <v>7</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="4" t="s">
         <v>7</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="4" t="s">
         <v>7</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="4" t="s">
         <v>7</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="4" t="s">
         <v>7</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="4" t="s">
         <v>7</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="4" t="s">
         <v>7</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="4" t="s">
         <v>7</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="4" t="s">
         <v>7</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="4" t="s">
         <v>7</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="4" t="s">
         <v>7</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="4" t="s">
         <v>7</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="4" t="s">
         <v>7</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="4" t="s">
         <v>7</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="4" t="s">
         <v>7</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="4" t="s">
         <v>7</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="4" t="s">
         <v>7</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="4" t="s">
         <v>7</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="4" t="s">
         <v>7</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="4" t="s">
         <v>7</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="4" t="s">
         <v>7</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="4" t="s">
         <v>7</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="4" t="s">
         <v>7</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="4" t="s">
         <v>7</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="4" t="s">
         <v>7</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="4" t="s">
         <v>7</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="4" t="s">
         <v>7</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="4" t="s">
         <v>7</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="4" t="s">
         <v>7</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="4" t="s">
         <v>7</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="4" t="s">
         <v>7</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="4" t="s">
         <v>7</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="4" t="s">
         <v>7</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="4" t="s">
         <v>7</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
         <v>7</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="4" t="s">
         <v>7</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="4" t="s">
         <v>7</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="4" t="s">
         <v>7</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="4" t="s">
         <v>7</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="4" t="s">
         <v>7</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="4" t="s">
         <v>7</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="4" t="s">
         <v>7</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="4" t="s">
         <v>7</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="4" t="s">
         <v>7</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="4" t="s">
         <v>7</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="4" t="s">
         <v>7</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="4" t="s">
         <v>7</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
         <v>7</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
         <v>7</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
         <v>7</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
         <v>7</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="789" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
         <v>7</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
         <v>7</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="4" t="s">
         <v>7</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="4" t="s">
         <v>7</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="7" t="s">
         <v>7</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="794" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" s="4" t="s">
         <v>7</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" s="4" t="s">
         <v>7</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" s="4" t="s">
         <v>7</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" s="4" t="s">
         <v>7</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="4" t="s">
         <v>7</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="4" t="s">
         <v>7</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" s="4" t="s">
         <v>7</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="801" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" s="4" t="s">
         <v>7</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" s="4" t="s">
         <v>7</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="803" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
         <v>7</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
         <v>7</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="805" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" s="4" t="s">
         <v>7</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="806" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" s="4" t="s">
         <v>7</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" s="4" t="s">
         <v>7</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="808" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" s="4" t="s">
         <v>7</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="809" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" s="4" t="s">
         <v>7</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="810" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" s="4" t="s">
         <v>7</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" s="4" t="s">
         <v>7</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="812" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" s="4" t="s">
         <v>7</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="813" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" s="4" t="s">
         <v>7</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" s="4" t="s">
         <v>7</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="815" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" s="4" t="s">
         <v>7</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" s="4" t="s">
         <v>7</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="817" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" s="4" t="s">
         <v>7</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="818" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" s="4" t="s">
         <v>7</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" s="4" t="s">
         <v>7</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="820" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" s="4" t="s">
         <v>7</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="821" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" s="4" t="s">
         <v>7</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="822" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
         <v>7</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
         <v>7</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" s="4" t="s">
         <v>7</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="825" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" s="4" t="s">
         <v>7</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" s="4" t="s">
         <v>7</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" s="4" t="s">
         <v>7</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="828" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" s="4" t="s">
         <v>7</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="829" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" s="4" t="s">
         <v>7</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="830" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" s="4" t="s">
         <v>7</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" s="4" t="s">
         <v>7</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="832" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" s="4" t="s">
         <v>7</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" s="4" t="s">
         <v>7</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" s="4" t="s">
         <v>7</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="835" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" s="4" t="s">
         <v>7</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="836" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" s="4" t="s">
         <v>7</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="837" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" s="4" t="s">
         <v>7</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" s="4" t="s">
         <v>7</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
         <v>7</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="840" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" s="4" t="s">
         <v>7</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="841" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" s="4" t="s">
         <v>7</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="842" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" s="4" t="s">
         <v>7</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" s="4" t="s">
         <v>7</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="844" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" s="4" t="s">
         <v>7</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" s="4" t="s">
         <v>7</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" s="4" t="s">
         <v>7</v>
       </c>
@@ -22648,7 +22648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="847" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" s="4" t="s">
         <v>7</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" s="4" t="s">
         <v>7</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="849" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" s="4" t="s">
         <v>7</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" s="4" t="s">
         <v>7</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="851" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" s="4" t="s">
         <v>7</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" s="4" t="s">
         <v>7</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="853" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" s="4" t="s">
         <v>7</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="854" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" s="4" t="s">
         <v>7</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" s="4" t="s">
         <v>7</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="856" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" s="4" t="s">
         <v>7</v>
       </c>
@@ -22908,7 +22908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" s="4" t="s">
         <v>7</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="858" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" s="4" t="s">
         <v>7</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="859" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" s="4" t="s">
         <v>7</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="860" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" s="4" t="s">
         <v>7</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="861" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" s="4" t="s">
         <v>7</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" s="4" t="s">
         <v>7</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" s="4" t="s">
         <v>7</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" s="4" t="s">
         <v>7</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="865" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" s="4" t="s">
         <v>7</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="866" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" s="4" t="s">
         <v>7</v>
       </c>
@@ -23168,7 +23168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" s="4" t="s">
         <v>7</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="868" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" s="4" t="s">
         <v>7</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" s="4" t="s">
         <v>7</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="870" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" s="4" t="s">
         <v>7</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="871" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" s="4" t="s">
         <v>7</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="872" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" s="4" t="s">
         <v>7</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="873" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" s="4" t="s">
         <v>7</v>
       </c>
@@ -23350,7 +23350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" s="4" t="s">
         <v>7</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="875" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" s="4" t="s">
         <v>7</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" s="4" t="s">
         <v>7</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="877" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" s="4" t="s">
         <v>7</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="878" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" s="4" t="s">
         <v>7</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" s="4" t="s">
         <v>7</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="880" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" s="4" t="s">
         <v>7</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="881" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" s="4" t="s">
         <v>7</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="882" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" s="4" t="s">
         <v>7</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" s="4" t="s">
         <v>7</v>
       </c>
@@ -23610,7 +23610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="884" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" s="4" t="s">
         <v>7</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" s="4" t="s">
         <v>7</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="886" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" s="4" t="s">
         <v>7</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="887" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" s="4" t="s">
         <v>7</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" s="4" t="s">
         <v>7</v>
       </c>
@@ -23740,7 +23740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="889" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" s="4" t="s">
         <v>7</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="890" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" s="4" t="s">
         <v>7</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" s="4" t="s">
         <v>7</v>
       </c>
@@ -23818,7 +23818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="892" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" s="4" t="s">
         <v>7</v>
       </c>
@@ -23844,7 +23844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="893" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" s="4" t="s">
         <v>7</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" s="4" t="s">
         <v>7</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="895" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" s="4" t="s">
         <v>7</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="896" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" s="4" t="s">
         <v>7</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="897" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" s="4" t="s">
         <v>7</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="898" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" s="4" t="s">
         <v>7</v>
       </c>
@@ -24000,7 +24000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="899" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" s="4" t="s">
         <v>7</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="900" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" s="4" t="s">
         <v>7</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="901" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" s="4" t="s">
         <v>7</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="902" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" s="4" t="s">
         <v>7</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" s="4" t="s">
         <v>7</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="904" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" s="4" t="s">
         <v>7</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="905" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" s="4" t="s">
         <v>7</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="906" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" s="4" t="s">
         <v>7</v>
       </c>
@@ -24208,7 +24208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="907" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" s="4" t="s">
         <v>7</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="908" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" s="4" t="s">
         <v>7</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="909" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" s="4" t="s">
         <v>7</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="910" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" s="4" t="s">
         <v>7</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="911" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" s="4" t="s">
         <v>7</v>
       </c>
@@ -24338,7 +24338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="912" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" s="4" t="s">
         <v>7</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="913" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" s="4" t="s">
         <v>7</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="914" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" s="4" t="s">
         <v>7</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" s="4" t="s">
         <v>7</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="916" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" s="4" t="s">
         <v>7</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="917" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" s="4" t="s">
         <v>7</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="918" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" s="4" t="s">
         <v>7</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="919" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" s="4" t="s">
         <v>7</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="920" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" s="4" t="s">
         <v>7</v>
       </c>
@@ -24572,7 +24572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="921" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" s="4" t="s">
         <v>7</v>
       </c>
@@ -24598,7 +24598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="922" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" s="4" t="s">
         <v>7</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="923" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" s="4" t="s">
         <v>7</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="924" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" s="4" t="s">
         <v>7</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="925" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" s="4" t="s">
         <v>7</v>
       </c>
@@ -24702,7 +24702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="926" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" s="4" t="s">
         <v>7</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" s="4" t="s">
         <v>7</v>
       </c>
@@ -24754,7 +24754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="928" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" s="4" t="s">
         <v>7</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="929" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="4" t="s">
         <v>7</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="930" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="4" t="s">
         <v>7</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" s="4" t="s">
         <v>7</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" s="4" t="s">
         <v>7</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="933" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" s="4" t="s">
         <v>7</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="934" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" s="4" t="s">
         <v>7</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="935" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="4" t="s">
         <v>7</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="936" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="4" t="s">
         <v>7</v>
       </c>
@@ -24988,7 +24988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="937" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="4" t="s">
         <v>7</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" s="4" t="s">
         <v>7</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" s="4" t="s">
         <v>7</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="940" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="4" t="s">
         <v>7</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="4" t="s">
         <v>7</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" s="4" t="s">
         <v>7</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" s="4" t="s">
         <v>7</v>
       </c>
@@ -25170,7 +25170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="944" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" s="4" t="s">
         <v>7</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="945" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" s="4" t="s">
         <v>7</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="946" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" s="4" t="s">
         <v>7</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="947" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" s="4" t="s">
         <v>7</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="948" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" s="4" t="s">
         <v>7</v>
       </c>
@@ -25300,7 +25300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="949" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" s="4" t="s">
         <v>7</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="950" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A950" s="4" t="s">
         <v>7</v>
       </c>
@@ -25352,7 +25352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A951" s="4" t="s">
         <v>7</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="952" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A952" s="4" t="s">
         <v>7</v>
       </c>
@@ -25404,7 +25404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A953" s="4" t="s">
         <v>7</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="954" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A954" s="4" t="s">
         <v>7</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A955" s="4" t="s">
         <v>7</v>
       </c>
@@ -25482,7 +25482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="956" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A956" s="4" t="s">
         <v>7</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="957" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A957" s="4" t="s">
         <v>7</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="958" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A958" s="4" t="s">
         <v>7</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="959" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A959" s="4" t="s">
         <v>7</v>
       </c>
@@ -25586,7 +25586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="960" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A960" s="4" t="s">
         <v>7</v>
       </c>
@@ -25612,7 +25612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="961" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A961" s="4" t="s">
         <v>7</v>
       </c>
@@ -25638,7 +25638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="962" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A962" s="4" t="s">
         <v>7</v>
       </c>
@@ -25664,7 +25664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A963" s="4" t="s">
         <v>7</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="964" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A964" s="4" t="s">
         <v>7</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A965" s="4" t="s">
         <v>7</v>
       </c>
@@ -25742,7 +25742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="966" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A966" s="4" t="s">
         <v>7</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="967" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A967" s="4" t="s">
         <v>7</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="968" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A968" s="4" t="s">
         <v>7</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="969" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A969" s="4" t="s">
         <v>7</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="970" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A970" s="4" t="s">
         <v>7</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="971" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A971" s="4" t="s">
         <v>7</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="972" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A972" s="4" t="s">
         <v>7</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="973" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A973" s="4" t="s">
         <v>7</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="974" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A974" s="4" t="s">
         <v>7</v>
       </c>
@@ -25977,7 +25977,7 @@
       </c>
       <c r="J974" s="21"/>
     </row>
-    <row r="975" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A975" s="4" t="s">
         <v>7</v>
       </c>
@@ -26003,7 +26003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="976" spans="1:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A976" s="4" t="s">
         <v>7</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="977" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A977" s="4" t="s">
         <v>7</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="978" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A978" s="4" t="s">
         <v>7</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="979" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A979" s="4" t="s">
         <v>7</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="980" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A980" s="4" t="s">
         <v>7</v>
       </c>
@@ -26133,7 +26133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="981" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A981" s="4" t="s">
         <v>7</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="982" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A982" s="4" t="s">
         <v>7</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="983" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A983" s="4" t="s">
         <v>7</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" spans="1:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A984" s="4" t="s">
         <v>7</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="985" spans="1:8" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A985" s="7" t="s">
         <v>7</v>
       </c>
